--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/34_Giresun_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/34_Giresun_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79CF1EDA-B1E2-4B15-AB92-2295A0BF2DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3F8609-CC31-4515-B6B9-883C2E457081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{E68AE7D8-AC6D-4D50-8017-E132CDE2880C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{13514B4A-BF28-4A66-B887-0272942690E3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -970,13 +970,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D8B42B13-7F36-45A6-B0BC-68AD74DF3720}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0F590676-61FB-4903-9526-5B7E5FA1EB27}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{3D41BFA3-7376-4E6E-80F9-0E7F2C98C14B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6A90B814-B98E-4E81-9625-8042F5BB1615}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{ADCE8A53-FCA4-4AAB-BB50-675A87A950A0}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E832BB3C-D3E1-4696-AF61-B8A97F95226D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AD579768-7DAF-4F21-8279-09396E6E4317}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{93BD2998-BED8-4273-801F-0A2341497F61}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E338C709-7D6A-4DF3-BFE0-BE30C6216D24}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D8851382-A3E0-4CB8-973C-38F8ADBD2618}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B82CC4EA-8FC2-4F91-873E-4F8EE087C1DD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{869D6EFB-5B2B-44FA-A7AC-80C24ED615F0}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{6695C6FE-D888-4F2A-B474-508B650AF6E8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3CCA2DDC-24BF-49FA-AFC8-FC7A1704C7D1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9C224E-967F-469D-8317-35C3B7FD5A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E78B27E-A74B-42D1-82CD-CE679992F8BC}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2608,18 +2608,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1684BFE6-1B03-4622-9708-C1F61EB92D08}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11BC1BC8-9C78-49D2-AF1A-2E369065FBC5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{836AF28D-E02B-4418-9662-25F62B7078C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D5EB245-D6EF-4956-8865-47714B432A98}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0B83A7FE-6ABA-4064-AEEB-24B65F8BFD1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E286E5C5-FFDC-47D3-B4B0-F6337AF1A0E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{310CFD23-C3FE-4DED-AE9E-A75A8175A482}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0BC62C3B-197F-477C-9B5C-77762D409174}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A625FAC6-7D74-4D3F-98CD-CF1BEAA68056}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E82AAE6C-BF11-4B37-BB4A-BA14523D5680}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6729624-C0BD-4B01-A806-6DC274A0BC68}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0B36FD2-5CF1-4C66-B69E-7956F08F524F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{458741E3-78D2-4930-A1A1-238B63A57310}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A7A570D-424B-41AB-A5A4-6E3B1CF7E2B4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86DDFEFD-99FE-4B39-89A2-B338F473686F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1AD07B46-D7AF-446C-A3EE-F90A866AC602}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0B5DC0AB-E178-4A2A-A2B5-324CADAA6898}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42EEA6A5-4FB6-4165-A530-B375E81A20AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E18A1F1-D8F0-43E4-A4D0-846305E89577}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{490A72D5-7F0C-408D-80CB-8BDADE29D0B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4164CF9B-F589-4A0A-98C7-7F4D24B0DAF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC5373D3-A12E-4A4B-98C5-D2437A9A829B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE653CE6-F076-452A-BBD6-C7D0AF134054}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAE15449-0D26-425B-8F46-8DD8CE6123CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2632,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2356D440-116D-4B77-A414-6FC05FB31A10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A2E5A9-6CCD-4750-A46B-8A5707743A8D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3875,18 +3875,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A68C3B4-06C0-49BD-AF08-1F24A276A0BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EE69F8F-5CDE-40C6-B02A-A26DA60275A2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4AAE32A-B0BE-42CE-AEC3-B067580ABA7E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4F99F51F-6CA0-456C-A981-18E1D11CEF9D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{091E4DCC-1301-4AFC-9ED1-6385DD107CBE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D888778-7B01-46B8-8A50-DB2E8ED3952A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4C36AB1-E7E4-4A81-9A00-CF872CDCB9D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18198E21-681E-4F21-A51D-C870A6E72B7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D56AEE4E-87F1-43F0-8455-8318F1EB242F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D13B81F8-EE73-4C0C-86DD-18CF8FAA7828}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E14397E-DDE6-4D8F-A110-86171B87F0FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12189B73-F4F9-4D43-8366-5706D51A7DC3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D0E0ACA-769A-4071-935C-2610EB7E2AB4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84053B9C-1F03-4CF9-90A5-B031F6D31CFD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7E58DF5-6A15-4112-A58A-A82B67AF1EE3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16C23DCA-9B36-4C41-93F7-119F6012EA0B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CA6320D9-B3A7-404E-BFED-21D98A6CC7FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{732500CB-7A77-4544-BE15-D4B0A70AAE24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5044CDA-FD82-44CD-A39C-BA05B3D5BA11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3C55665-ED0D-435A-8B48-7388E911D33B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C1A895A-E2C2-4DF1-A70A-A2E1F463971B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{234C75A8-9B67-409D-8C35-F2C0C5BE0960}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45B3A623-A3B0-4628-9C2C-6B5BDA3303E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43C74B7D-5D6E-4D0F-A4DA-4236ACC30F18}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3899,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735109CF-173C-44F5-9443-62AC789D3F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8329BF60-CA7B-4C85-A03B-5583C5B3F5E8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5138,18 +5138,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2661ED8-A178-4AB8-9E61-F4868145870D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E8D511A-2A90-47B7-8876-FAD5D93829A6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AE8CCD8-C291-4BB8-BA7D-27A2357472AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C9963616-CDEC-4D19-B28A-DD3B83783684}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D9B95FAD-D803-4846-9B32-86E7AA142868}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{857807AA-0CDE-44ED-9054-9F332940E38B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F112E5D-5A9D-41C5-9BDF-3E5CBACEB236}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C75D577F-6DE4-4F8B-B462-089F0750929B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8FF9CB2-463F-470E-8EA6-2E919ADEA6A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{396002EE-4E1D-4D96-913A-25CA3A1E596A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE413E5C-4D80-475B-9A7F-B14CD8E0088E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7830D636-E70E-45E8-9F02-0877A8D27B67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD0F61F0-D291-4A92-A1B0-FE162650AAA2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC6989D8-57AE-445D-B5B5-8A6EE9361F6B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{231A6688-B577-4F4C-ADE7-1F59772BC55C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBAAAA83-EBCF-460E-B949-AE767D580057}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6C74D304-4325-433F-B11E-FC34DF32243A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{436E2271-AD58-45D6-8AA0-56E6D5EAD0E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF0362B8-44E7-4DA0-9228-152216DA3E59}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2214FF4F-2A63-4CEB-92EF-52AB8C44BA88}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E163C553-703C-484F-9309-61026BB39C05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4C4EA46-00E9-4AA9-94F3-A677423FE4BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8D435EB-C7C7-4F92-ADAE-6F1B2DD1E0BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FDFB9EC2-1BFD-479A-92F6-58226CC517D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5162,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19A4B47-90B5-46BB-A3A9-DEA8C91FA243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996F2D96-B80F-4F47-9663-B5486FDFADFF}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -6393,17 +6393,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0528A5CA-0CA9-4D57-A8B2-F7A057D1FDCB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4CF4BD7A-9D2E-4053-AA18-752E4AF24B41}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8292A755-92EB-419D-BE9B-34C0F556A5D6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{46D64E28-4E10-4510-A89F-3CEABAE1A9C8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{787B3004-6D1F-4DDE-A457-0BDD387F84A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9188E721-0EA3-4B05-B1EE-A24690C2C2F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F02D98AB-DC84-48AB-90D0-081967CC7172}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3D9175A-CCE8-47B8-8607-F138A9B79241}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3E3B6AC-7FE2-4219-A914-A2B3AE6F9EA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E61F890-A1A5-42B3-9EBC-62230FF88221}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30598ADF-4147-4B4B-9BEF-6285C1C4FA8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABF7B888-14DE-4EA5-ADF7-106933E06163}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F98C9FBF-D8FF-4290-B48E-DDD70DD71A93}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4468E33D-644D-42DA-8B61-7125995F63F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{22D168B6-4B2D-4059-935F-7676105B45A8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{592EE52D-5D2F-4597-8308-7F8F4F59D66A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47563DB6-73A5-4175-95CB-54A15E090B45}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{091E7802-05CA-4BD2-9558-E59EB5066DE2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B2B132F-E3F8-43D3-BC5C-CB28DBEB51A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95F932B5-C931-486E-88B7-DC0804B9B0B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10EFAAE0-9D98-489A-B893-FB35DA1DAC69}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DDF9EE5-6495-468A-80C3-51A2B7B477A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6416,7 +6416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE8B281-6387-46C1-B5FE-06877FAB5559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1BAB62-4596-4648-B430-3162F380EC0C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7675,18 +7675,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5C5C577-9B8A-43AA-B693-506DF862DE36}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D1552B9-38E7-402E-BEA2-B76D4D8BE280}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40BDDCBD-3C08-4CAE-A522-BF7F8685AD89}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{802B0EF6-4779-42C9-BC21-82586643FF31}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{096F9950-AE51-4C3E-9076-93BFAB619CF0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9E620F9-3215-4FCF-A77C-867BC7B3F620}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B2F7743-6F58-4634-9DB2-0ADBFAEF727A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54DAD6A3-3DF4-422D-9447-5BBF631349CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07474E04-BA22-4B35-B253-266FED901B7D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53A36F9B-8185-41A6-8352-890172A8AAC0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5CF2152-F0A2-4B3B-8B6B-12516E4478CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ECA19638-0B7E-48ED-B99B-0AEDDAEFDA57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9775F9D4-B70C-43AE-9654-19B03C7AFB3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A776047-E173-45B3-9CD9-6B35FDECF9AD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDB95B40-3495-4CA4-9862-9C683A47848F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E90D93A-F527-436D-B0B2-89DD04CD06FB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D9266831-A32C-4CE9-BB04-520F0E0816A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99856945-A280-4D8E-B458-6622A5AE60E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F205A6FB-40F2-439D-9A8F-75622BEE497D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{79FC524A-E095-46BA-8DBD-E42E3E3E64C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5301CEE4-30EE-459B-ACDF-59A7A0B751F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{437EE58E-DAA6-46B8-B10C-320880A90DA6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDB04515-7796-4073-9393-B0A8DD529FCA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67AD9C3A-C4DA-4971-8F2B-127F92365078}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7699,7 +7699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A95541-AAED-4518-A899-A64C4336AB66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D1D390-B96E-4335-AA38-61027433A08A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8958,18 +8958,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4331296E-C1FF-4E1A-BCE9-9346C3CFFF85}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80EBDFA4-D482-4861-89A7-2BE5723BCFD2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{976B3E49-E0C0-4787-810A-AC295F1580E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92C32E78-286F-4284-98F1-A34B6E2589C4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B5B20A9A-D495-4889-937B-14B02D0227D4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{125516B0-829A-45E2-80DA-F27EBC3F4E70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1704CD32-5E55-449A-B5BD-C6BA2F0785BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8BA09B58-C3AB-488A-B848-A33AE74F2638}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{305AA9E5-4DCF-4C73-B5DD-17D5EF09C32D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5346C6DA-3FCA-4539-AEF4-2AB5693279CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47842872-1AF7-4806-9D8F-DD6CF07CB5A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6877E806-2753-4611-903E-F598B20EC6C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53B8C663-C2E8-4E72-852E-ED7B3B7DD919}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83119424-E161-4B71-961A-89F0ABFBCB34}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B522FCEB-0771-40E7-BAB4-19CFAB9B0D8F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{833ACF8F-05C3-473E-9300-30736C08DFA9}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{41D99916-1736-4477-AA03-729CE13E8AEF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{156E2CDA-5005-4D65-8821-78E3C7AEFAA3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D4A0E93-A981-4495-ACFA-27A0553C60D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{739842FA-99E2-454B-8C75-589B1FC9C6E2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00437D66-8369-42BB-828A-57F0CC3E5472}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82B041E3-80FF-48FD-B205-15650A3176FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD7B2A43-6163-4517-8C9D-72DF465A8FD5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{566BF886-3910-4198-939B-CCD656538AF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8982,7 +8982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4F37C8-4702-44E9-A070-BB247CADCBBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1949182C-3C5C-46CC-BC98-DC42E187F3CC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10241,18 +10241,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1C02CF3-B79E-4DD2-AEDC-6133D65E025C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F79A3B48-2571-4957-BBA3-D79026446010}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26628766-E54F-40F7-832A-E568CDC40ED2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4DBD469-D930-4827-9A73-F3E8D77999E7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{01EE44D5-6849-47F6-BF77-BD9D5C543C08}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD0572BF-48C3-480C-B39B-E9CF3F6AD3DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF554032-ACB2-45EA-B229-403865D749DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BD9408E-7612-444C-9B25-6B5C1793C5D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{462ED31B-770A-443D-A8CC-5F1ADC84E894}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0F2F5F0-73C5-4FAA-B66E-92093BB9C194}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F0D7B63-E74A-45F5-9534-19693D2434F0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{84E45E8A-7910-4C08-BCA6-27DCF71FEAE3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCEAABE1-E3D2-4135-BB0E-657670504966}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB5599CB-AAE1-42E9-9BD9-1913E9AE1455}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DF8321EC-BE86-4282-8D08-86F3161E499A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C35D45A-B9D1-4040-B251-0B9DF6E8A099}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C9C98EAC-0BE7-4A93-B730-767599E6C2C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3413A18-2AEC-4E7B-AFD8-BF5776FE5C79}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D31C7C6-BA00-4F79-90BF-FA19DC3F5751}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D160DAC-F14D-44C6-BFE4-ECED9DCAE990}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB1336B5-1CB1-4245-87CB-0AB0C6662692}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3DB9BDF1-934C-421E-A0B4-94A7036177F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25C5E088-F4BD-49BD-BE6A-B3BA81E4819A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60B0A0BF-D543-442A-8013-04895DA524AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10265,7 +10265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E271013C-2589-4D13-B473-44290EE52691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCEA0F1-A6AA-43E6-9973-9BDCA9D7F527}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11524,18 +11524,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA40CF7D-0743-4BF0-BA88-6E6E0CA47372}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D6EA025-5773-4276-B31C-AC61EEEF04AE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D12A681D-9A45-439F-910B-F413B288360C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43CDD1AA-DC8A-4606-8245-CE42381A0BB9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{76E1F399-2234-444D-B937-418D43E1F1C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81ADCDC4-E4D9-4A18-8F51-3623F6A930FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D028F4E4-EFB9-4E02-A312-46ADDB7DEF6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{41756F58-CEB8-4824-A7C8-C4D3FDB211C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E19B343-7B82-40E4-AACF-3DDBAE4824A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FCCA3B4-52CE-4168-856A-1BC23CA95074}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F737C4A9-CFFF-4B2F-BA8E-9D9ECBB5DACE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5260F51B-B6E4-4B67-A20B-C2AC082444A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9558CC9-26EE-44C4-B7C9-6803AC44D856}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A3AB2A1-8DAB-40EB-A380-50AA7B460BDE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B23F8A1-D940-44AD-902E-2B252EEA4E9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C24B55D3-2BE1-4B82-8401-D1565AC2B359}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{904F16EE-3E76-4152-976D-D4AE208AADEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1AC3F5EF-14FC-491C-8387-2B927FA8FAD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0B1E58B-EADB-49AD-9147-D4FBBB934973}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D234D5F-0598-41A8-9162-12735E68FC90}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFCD6380-362A-4560-8FD4-D2039AB4E008}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEB0EFA9-36B3-4318-95F3-E1071474DCB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58B80066-4847-46C2-96C2-4E9F9184C7DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC281253-ADC3-4899-921F-483784F711AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11548,7 +11548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CFB42A-88FD-4A92-8273-AB3F23CFAA36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4F681D-BFD7-47E4-A9E7-39B7AFE4503C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12807,18 +12807,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E0E269B-A417-42F4-B6D7-DF7263E73171}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{546928A9-58CB-4707-A6B2-9B5C1476505D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8923B0E6-485E-4D3A-9EC3-5A3C1D3AB774}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EBC90F0F-A56A-48BA-9FA0-2B12554ECF4A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{30A3E73A-A8FE-4B1A-89EC-727208827D52}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C7AC008-D558-4E17-A271-FC0A4B2FACDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6035967C-7F43-4549-B3E1-2FA4807B1501}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E2E845B-8B32-43CE-98AD-A3D0591262CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC92718B-50B5-463A-AACC-55C35B01C3A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CFC5475-1180-4E01-81C7-15F58F75DDBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F9BE381-E4A0-4F70-97AB-BDBDE50AC4E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0914AAAB-A519-4C6D-8B74-E4E32EA3DDA1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D820067-9951-4ED3-A55B-9129FCF90D88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6995776D-4678-47D9-9DEF-D6582403FB06}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6EC73D76-7535-4892-9F24-97B1136B0E30}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCEA713C-65A9-4021-85FD-A556FAE98A6C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F46EADC1-2FF0-4A7F-9D6F-706D02ED72BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3B43DF7-8636-4E98-A5C3-1CACCDF0A135}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B798D763-B3F3-472E-8F4A-372FCD928217}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{09EDD4B4-9866-4893-8418-C505B8DA8E75}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{575337A3-0B61-4904-8667-9462259BF698}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57B7BF60-FCCE-49F8-876C-25421504E147}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35F3F290-38FD-4784-8957-1BDA98EB42FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BFC07BB-0C55-4D30-908B-B6A74D2132FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12831,7 +12831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80275495-1FE5-42E4-A88B-03CD8CE1D5DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7DD16F-AF5C-431A-A167-94FD03F84C43}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14090,18 +14090,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8293D9BE-F212-4E33-9ECD-4EFBB386FC17}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5EC3DF2-7D09-4633-B49E-4A3D564798C9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{075CC72B-6992-44AB-AE5D-1F6A6F218DE0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4265BAA9-3C7D-4151-BE05-761D1D05BD7B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{19EF831D-455F-4CF3-9D2E-D371F499F0A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30900479-02DF-4D9A-B4B8-D843318F61B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7981746D-E057-4171-AC83-DB6993FB389D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB18A216-D8AB-447E-A370-32703171F736}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7FE24289-7ECE-4A4E-AEA0-5E14A28AF86F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD53A3B4-3FF0-436B-ACD6-8AD939363EF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A50166EF-A498-4414-A0D2-9CC7731168ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFE1AC46-FF11-42D5-84A1-7F5BE8974D7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF95E59E-A084-4258-9091-3B94EC084DAF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A2BF03F-2610-4D6A-85A1-AEA6FC6F1CB5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FA777F36-C3A7-4018-90E0-0EFE69A412C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F132332B-00C9-4A39-915B-7AE5347A91E0}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{314E87C8-9021-45FA-948A-C73522AE3E32}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF71518C-15BD-4E23-A1F2-E055BC7BCE76}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17E50102-D54E-480D-9F85-915A44499E56}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6861C215-6384-4C64-ACEC-E1188EEB200C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D9D9507-8617-47B5-A40D-4BFEE0E54338}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{426E1352-3594-4DBF-84F5-DAE664F27E72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{063942EF-A938-4EF0-A4CC-E536D6B26961}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CBE3983-4B79-4048-896D-5DB7E1F42286}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14114,7 +14114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B09D81E-92D8-41F2-AE41-D86F18BF00E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EED631-2D7B-4A5B-997B-D293766C5CA0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15369,18 +15369,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF34ADC9-6ED9-436D-9148-CEE6FCC9971A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB1149DA-B053-4277-8CEA-E868AFE7AE91}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D8AE6E2C-70C8-4D65-8CF3-3851B8662CE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCA1677B-FC60-4B1E-8BD4-E9584D47E268}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{042E0DEE-F44F-46FF-9B76-5B85FC4096D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C018F00-F201-40F6-9824-E24225DF60D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7E88B92-14B6-45FF-B945-B0D54946D0BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66B36211-7546-4BA7-85E8-C2CB05130D7E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FF48102-7CCC-4FB0-B0DF-FA6717831053}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{258FDF3B-2C8E-4792-AF12-76C25744E7AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F629D5A2-FF17-4AF5-9821-7AB556375BA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55E01B94-A03E-40FE-855D-D2D8EE719196}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98F045EA-46EB-4FFB-A1CB-221EA0F27DDA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55F67685-3D46-405C-9308-8A748D3A7AD9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8170370B-8303-4661-AF0D-702DB2EE744A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5163F06D-1C3A-4144-9D3A-C194B2185C6B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{899ECF5D-6D97-4635-BB16-EA182A32F383}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3F62753-C7E9-4D1F-9C14-393FAD05CE76}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC875009-D22D-47C3-8FEB-93D4BFD85400}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6797CBED-73A4-4BED-9050-E27582E487A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A4DE8B6-B810-44CA-A154-03C99D8CAB12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8891783D-77B5-4CD9-A272-EED4C1B7146D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50F63AA6-ADEB-4E81-BB65-984930628E7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9545B5D4-ADA1-4976-BADB-2C709841AC28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15393,7 +15393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1349EB6-414C-455B-B29A-F66761E59123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A46F76-5A04-4947-B06C-4CC104DE0D5A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16648,18 +16648,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CA9026D-8350-44A7-A132-FAC84BD75B16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B08D090E-B99E-4686-A2D7-F7FB14D9082B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F13A5C39-8610-470F-9BA0-A0E37BFEA096}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{024CE535-0BFC-45E0-89F9-ECC8733FC297}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{346F796D-5D52-4B4D-B3F6-A1D1166D1210}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70FE42FC-32A6-4D49-8572-4A49AFFCC561}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09930918-0883-4E9D-A044-95FCA666AE77}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F4EC8FA-A6D7-4080-9754-B5664645F53C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9EF9881-F100-45A8-BD32-230F5213B974}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0154A167-3B67-4DA3-8332-A036229163F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E1C11F3-41E2-4E38-A0A3-121B4267BEC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50C1DAC3-64D7-463C-8108-28F1C58EA761}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC8E912B-96D9-44D9-9D57-2A113C816BCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B68EBDA0-2BC4-4586-9932-C286F442C3E6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E0C12A2-077C-40B2-9FED-1A42305FCF5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA315114-1456-418B-8B9D-3F3FFD248134}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{55BC0854-441F-4FF2-B39B-5ED5B3429A9D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D06C8CF6-CF71-4DA6-8F80-9A49B01460E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3E93631-9D36-4399-83E6-12BACD7E4D94}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BD760EF-AEC6-4BFC-A159-D137E72920AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A858B46C-4C62-4E8C-90F1-2FE2BD339F54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4084D47-5C02-4DCE-9D36-52A232828699}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0010FB56-09A5-408C-86BE-C5F6FCCF2A20}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70F4E91B-26B5-416B-8EA3-8B2DD080546A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
